--- a/Resource/excel/项目-属性定义-玩家属性.xlsx
+++ b/Resource/excel/项目-属性定义-玩家属性.xlsx
@@ -34,6 +34,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -42,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -60,6 +62,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -68,6 +71,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -82,6 +86,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>PCC:</t>
@@ -90,6 +95,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -102,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="131">
   <si>
     <t>#class</t>
   </si>
@@ -299,9 +305,6 @@
     <t>RemoveFunction(string)</t>
   </si>
   <si>
-    <t>object</t>
-  </si>
-  <si>
     <t>Player</t>
   </si>
   <si>
@@ -317,9 +320,6 @@
     <t>record</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -461,24 +461,6 @@
     <t>kill</t>
   </si>
   <si>
-    <t>成就</t>
-  </si>
-  <si>
-    <t>achieve</t>
-  </si>
-  <si>
-    <t>Achieve</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>条件列表</t>
-  </si>
-  <si>
     <t>英雄id</t>
   </si>
   <si>
@@ -516,12 +498,6 @@
   </si>
   <si>
     <t>index</t>
-  </si>
-  <si>
-    <t>conditions</t>
-  </si>
-  <si>
-    <t>状态</t>
   </si>
   <si>
     <t>Basic(int)</t>
@@ -543,24 +519,28 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -568,22 +548,25 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,19 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39979247413556324"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,11 +650,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,25 +673,16 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1096,45 +1058,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH35"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="W5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="36.25" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="10" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="22.625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="10" customWidth="1"/>
-    <col min="11" max="12" width="19.375" style="10" customWidth="1"/>
-    <col min="13" max="14" width="18.25" style="10" customWidth="1"/>
-    <col min="15" max="16" width="19.25" style="10" customWidth="1"/>
-    <col min="17" max="17" width="14.875" style="10" customWidth="1"/>
-    <col min="18" max="18" width="17.125" style="10" customWidth="1"/>
-    <col min="19" max="19" width="11" style="10" customWidth="1"/>
-    <col min="20" max="20" width="12.875" style="10" customWidth="1"/>
-    <col min="21" max="21" width="15" style="10" customWidth="1"/>
-    <col min="22" max="22" width="11" style="10" customWidth="1"/>
-    <col min="23" max="23" width="13.75" style="10" customWidth="1"/>
-    <col min="24" max="25" width="17.125" style="10" customWidth="1"/>
-    <col min="26" max="29" width="9" style="10" customWidth="1"/>
-    <col min="30" max="30" width="11" style="10" customWidth="1"/>
-    <col min="31" max="31" width="8.375" style="10" customWidth="1"/>
-    <col min="32" max="32" width="16.25" style="10" customWidth="1"/>
-    <col min="33" max="33" width="19.625" style="10" customWidth="1"/>
-    <col min="34" max="34" width="24.875" style="10" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="48.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="36.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="22.625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="8" customWidth="1"/>
+    <col min="11" max="12" width="19.375" style="8" customWidth="1"/>
+    <col min="13" max="14" width="18.25" style="8" customWidth="1"/>
+    <col min="15" max="16" width="19.25" style="8" customWidth="1"/>
+    <col min="17" max="17" width="14.875" style="8" customWidth="1"/>
+    <col min="18" max="18" width="17.125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="11" style="8" customWidth="1"/>
+    <col min="20" max="20" width="12.875" style="8" customWidth="1"/>
+    <col min="21" max="21" width="15" style="8" customWidth="1"/>
+    <col min="22" max="22" width="11" style="8" customWidth="1"/>
+    <col min="23" max="23" width="13.75" style="8" customWidth="1"/>
+    <col min="24" max="25" width="17.125" style="8" customWidth="1"/>
+    <col min="26" max="29" width="9" style="8" customWidth="1"/>
+    <col min="30" max="30" width="11" style="8" customWidth="1"/>
+    <col min="31" max="31" width="8.375" style="8" customWidth="1"/>
+    <col min="32" max="32" width="16.25" style="8" customWidth="1"/>
+    <col min="33" max="33" width="19.625" style="8" customWidth="1"/>
+    <col min="34" max="34" width="24.875" style="8" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1424,7 +1386,7 @@
         <v>56</v>
       </c>
       <c r="Z4" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA4" s="4" t="s">
         <v>57</v>
@@ -1453,19 +1415,19 @@
     </row>
     <row r="5" spans="1:34" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O5" s="5">
         <v>1</v>
@@ -1518,28 +1480,28 @@
     </row>
     <row r="6" spans="1:34" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="H6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="O6" s="5">
         <v>1</v>
@@ -1592,16 +1554,16 @@
     </row>
     <row r="7" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O7" s="5">
         <v>0</v>
@@ -1654,28 +1616,28 @@
     </row>
     <row r="8" spans="1:34" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="H8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="O8" s="5">
         <v>1</v>
@@ -1728,16 +1690,16 @@
     </row>
     <row r="9" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O9" s="5">
         <v>0</v>
@@ -1790,28 +1752,28 @@
     </row>
     <row r="10" spans="1:34" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="H10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="O10" s="5">
         <v>1</v>
@@ -1864,16 +1826,16 @@
     </row>
     <row r="11" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O11" s="5">
         <v>0</v>
@@ -1926,16 +1888,16 @@
     </row>
     <row r="12" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O12" s="5">
         <v>0</v>
@@ -1988,16 +1950,16 @@
     </row>
     <row r="13" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O13" s="5">
         <v>0</v>
@@ -2050,16 +2012,16 @@
     </row>
     <row r="14" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O14" s="5">
         <v>0</v>
@@ -2112,16 +2074,16 @@
     </row>
     <row r="15" spans="1:34" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O15" s="5">
         <v>0</v>
@@ -2174,16 +2136,16 @@
     </row>
     <row r="16" spans="1:34" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O16" s="5">
         <v>0</v>
@@ -2236,16 +2198,16 @@
     </row>
     <row r="17" spans="1:30" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O17" s="5">
         <v>0</v>
@@ -2298,16 +2260,16 @@
     </row>
     <row r="18" spans="1:30" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O18" s="5">
         <v>0</v>
@@ -2360,16 +2322,16 @@
     </row>
     <row r="19" spans="1:30" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O19" s="5">
         <v>0</v>
@@ -2422,31 +2384,31 @@
     </row>
     <row r="20" spans="1:30" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="G20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="M20" s="5">
         <v>100</v>
@@ -2505,16 +2467,16 @@
     </row>
     <row r="21" spans="1:30" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="5">
         <v>0</v>
@@ -2567,902 +2529,639 @@
     </row>
     <row r="22" spans="1:30" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="5">
+        <v>0</v>
+      </c>
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>1</v>
+      </c>
+      <c r="X22" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="E23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O23" s="6">
+        <v>1</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0</v>
+      </c>
+      <c r="S23" s="6">
+        <v>1</v>
+      </c>
+      <c r="T23" s="6">
+        <v>1</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0</v>
+      </c>
+      <c r="V23" s="6">
+        <v>0</v>
+      </c>
+      <c r="W23" s="6">
+        <v>1</v>
+      </c>
+      <c r="X23" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O22" s="5">
-        <v>0</v>
-      </c>
-      <c r="P22" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>0</v>
-      </c>
-      <c r="R22" s="5">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5">
-        <v>0</v>
-      </c>
-      <c r="T22" s="5">
-        <v>0</v>
-      </c>
-      <c r="U22" s="5">
-        <v>0</v>
-      </c>
-      <c r="V22" s="5">
-        <v>0</v>
-      </c>
-      <c r="W22" s="5">
-        <v>1</v>
-      </c>
-      <c r="X22" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="5">
+      <c r="B24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0</v>
+      </c>
+      <c r="S24" s="6">
+        <v>1</v>
+      </c>
+      <c r="T24" s="6">
+        <v>1</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0</v>
+      </c>
+      <c r="V24" s="6">
+        <v>0</v>
+      </c>
+      <c r="W24" s="6">
+        <v>1</v>
+      </c>
+      <c r="X24" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5" t="s">
+    <row r="25" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B25" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O23" s="5">
-        <v>0</v>
-      </c>
-      <c r="P23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="5">
-        <v>0</v>
-      </c>
-      <c r="R23" s="5">
-        <v>0</v>
-      </c>
-      <c r="S23" s="5">
-        <v>1</v>
-      </c>
-      <c r="T23" s="5">
-        <v>1</v>
-      </c>
-      <c r="U23" s="5">
-        <v>0</v>
-      </c>
-      <c r="V23" s="5">
-        <v>0</v>
-      </c>
-      <c r="W23" s="5">
-        <v>0</v>
-      </c>
-      <c r="X23" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O24" s="7">
-        <v>1</v>
-      </c>
-      <c r="P24" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="7">
-        <v>0</v>
-      </c>
-      <c r="R24" s="7">
-        <v>0</v>
-      </c>
-      <c r="S24" s="7">
-        <v>1</v>
-      </c>
-      <c r="T24" s="7">
-        <v>1</v>
-      </c>
-      <c r="U24" s="7">
-        <v>0</v>
-      </c>
-      <c r="V24" s="7">
-        <v>0</v>
-      </c>
-      <c r="W24" s="7">
-        <v>1</v>
-      </c>
-      <c r="X24" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O25" s="7">
-        <v>1</v>
-      </c>
-      <c r="P25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0</v>
-      </c>
-      <c r="R25" s="7">
-        <v>0</v>
-      </c>
-      <c r="S25" s="7">
-        <v>1</v>
-      </c>
-      <c r="T25" s="7">
-        <v>1</v>
-      </c>
-      <c r="U25" s="7">
-        <v>0</v>
-      </c>
-      <c r="V25" s="7">
-        <v>0</v>
-      </c>
-      <c r="W25" s="7">
-        <v>1</v>
-      </c>
-      <c r="X25" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="7">
+      <c r="E25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O25" s="6">
+        <v>1</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <v>1</v>
+      </c>
+      <c r="T25" s="6">
+        <v>1</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0</v>
+      </c>
+      <c r="V25" s="6">
+        <v>0</v>
+      </c>
+      <c r="W25" s="6">
+        <v>1</v>
+      </c>
+      <c r="X25" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:30" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O26" s="7">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>0</v>
+      </c>
+      <c r="R26" s="7">
+        <v>0</v>
+      </c>
+      <c r="S26" s="7">
+        <v>0</v>
+      </c>
+      <c r="T26" s="7">
+        <v>1</v>
+      </c>
+      <c r="U26" s="7">
+        <v>0</v>
+      </c>
+      <c r="V26" s="7">
+        <v>0</v>
+      </c>
+      <c r="W26" s="9">
+        <v>1</v>
+      </c>
+      <c r="X26" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O27" s="7">
+        <v>1</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0</v>
+      </c>
+      <c r="S27" s="7">
+        <v>1</v>
+      </c>
+      <c r="T27" s="7">
+        <v>1</v>
+      </c>
+      <c r="U27" s="7">
+        <v>0</v>
+      </c>
+      <c r="V27" s="7">
+        <v>0</v>
+      </c>
+      <c r="W27" s="9">
+        <v>1</v>
+      </c>
+      <c r="X27" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O28" s="7">
+        <v>1</v>
+      </c>
+      <c r="P28" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0</v>
+      </c>
+      <c r="S28" s="7">
+        <v>1</v>
+      </c>
+      <c r="T28" s="7">
+        <v>1</v>
+      </c>
+      <c r="U28" s="7">
+        <v>0</v>
+      </c>
+      <c r="V28" s="7">
+        <v>0</v>
+      </c>
+      <c r="W28" s="9">
+        <v>1</v>
+      </c>
+      <c r="X28" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0</v>
+      </c>
+      <c r="P29" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>0</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="7">
+        <v>1</v>
+      </c>
+      <c r="T29" s="7">
+        <v>1</v>
+      </c>
+      <c r="U29" s="7">
+        <v>0</v>
+      </c>
+      <c r="V29" s="7">
+        <v>0</v>
+      </c>
+      <c r="W29" s="9">
+        <v>1</v>
+      </c>
+      <c r="X29" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O26" s="7">
-        <v>1</v>
-      </c>
-      <c r="P26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>0</v>
-      </c>
-      <c r="R26" s="7">
-        <v>0</v>
-      </c>
-      <c r="S26" s="7">
-        <v>1</v>
-      </c>
-      <c r="T26" s="7">
-        <v>1</v>
-      </c>
-      <c r="U26" s="7">
-        <v>0</v>
-      </c>
-      <c r="V26" s="7">
-        <v>0</v>
-      </c>
-      <c r="W26" s="7">
-        <v>1</v>
-      </c>
-      <c r="X26" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="7">
+      <c r="E30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>0</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0</v>
+      </c>
+      <c r="S30" s="7">
+        <v>1</v>
+      </c>
+      <c r="T30" s="7">
+        <v>1</v>
+      </c>
+      <c r="U30" s="7">
+        <v>0</v>
+      </c>
+      <c r="V30" s="7">
+        <v>0</v>
+      </c>
+      <c r="W30" s="9">
+        <v>1</v>
+      </c>
+      <c r="X30" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="8" t="s">
+    <row r="31" spans="1:30" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="O27" s="8">
-        <v>0</v>
-      </c>
-      <c r="P27" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="8">
-        <v>0</v>
-      </c>
-      <c r="R27" s="8">
-        <v>0</v>
-      </c>
-      <c r="S27" s="8">
-        <v>0</v>
-      </c>
-      <c r="T27" s="8">
-        <v>1</v>
-      </c>
-      <c r="U27" s="8">
-        <v>0</v>
-      </c>
-      <c r="V27" s="8">
-        <v>0</v>
-      </c>
-      <c r="W27" s="11">
-        <v>1</v>
-      </c>
-      <c r="X27" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="O28" s="8">
-        <v>1</v>
-      </c>
-      <c r="P28" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="8">
-        <v>0</v>
-      </c>
-      <c r="R28" s="8">
-        <v>0</v>
-      </c>
-      <c r="S28" s="8">
-        <v>1</v>
-      </c>
-      <c r="T28" s="8">
-        <v>1</v>
-      </c>
-      <c r="U28" s="8">
-        <v>0</v>
-      </c>
-      <c r="V28" s="8">
-        <v>0</v>
-      </c>
-      <c r="W28" s="11">
-        <v>1</v>
-      </c>
-      <c r="X28" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="O29" s="8">
-        <v>1</v>
-      </c>
-      <c r="P29" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="8">
-        <v>0</v>
-      </c>
-      <c r="R29" s="8">
-        <v>0</v>
-      </c>
-      <c r="S29" s="8">
-        <v>1</v>
-      </c>
-      <c r="T29" s="8">
-        <v>1</v>
-      </c>
-      <c r="U29" s="8">
-        <v>0</v>
-      </c>
-      <c r="V29" s="8">
-        <v>0</v>
-      </c>
-      <c r="W29" s="11">
-        <v>1</v>
-      </c>
-      <c r="X29" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y29" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="O30" s="8">
-        <v>0</v>
-      </c>
-      <c r="P30" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="8">
-        <v>0</v>
-      </c>
-      <c r="R30" s="8">
-        <v>0</v>
-      </c>
-      <c r="S30" s="8">
-        <v>1</v>
-      </c>
-      <c r="T30" s="8">
-        <v>1</v>
-      </c>
-      <c r="U30" s="8">
-        <v>0</v>
-      </c>
-      <c r="V30" s="8">
-        <v>0</v>
-      </c>
-      <c r="W30" s="11">
-        <v>1</v>
-      </c>
-      <c r="X30" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y30" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O31" s="8">
-        <v>0</v>
-      </c>
-      <c r="P31" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="8">
-        <v>0</v>
-      </c>
-      <c r="R31" s="8">
-        <v>0</v>
-      </c>
-      <c r="S31" s="8">
-        <v>1</v>
-      </c>
-      <c r="T31" s="8">
-        <v>1</v>
-      </c>
-      <c r="U31" s="8">
-        <v>0</v>
-      </c>
-      <c r="V31" s="8">
-        <v>0</v>
-      </c>
-      <c r="W31" s="11">
-        <v>1</v>
-      </c>
-      <c r="X31" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O32" s="8">
-        <v>0</v>
-      </c>
-      <c r="P32" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="8">
-        <v>0</v>
-      </c>
-      <c r="R32" s="8">
-        <v>0</v>
-      </c>
-      <c r="S32" s="8">
-        <v>1</v>
-      </c>
-      <c r="T32" s="8">
-        <v>1</v>
-      </c>
-      <c r="U32" s="8">
-        <v>0</v>
-      </c>
-      <c r="V32" s="8">
-        <v>0</v>
-      </c>
-      <c r="W32" s="11">
-        <v>1</v>
-      </c>
-      <c r="X32" s="11">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O33" s="6">
-        <v>0</v>
-      </c>
-      <c r="P33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>0</v>
-      </c>
-      <c r="R33" s="6">
-        <v>0</v>
-      </c>
-      <c r="S33" s="6">
-        <v>1</v>
-      </c>
-      <c r="T33" s="6">
-        <v>1</v>
-      </c>
-      <c r="U33" s="6">
-        <v>0</v>
-      </c>
-      <c r="V33" s="6">
-        <v>0</v>
-      </c>
-      <c r="W33" s="6">
-        <v>1</v>
-      </c>
-      <c r="X33" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="O34" s="9">
-        <v>0</v>
-      </c>
-      <c r="P34" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="9">
-        <v>0</v>
-      </c>
-      <c r="R34" s="9">
-        <v>0</v>
-      </c>
-      <c r="S34" s="9">
-        <v>1</v>
-      </c>
-      <c r="T34" s="9">
-        <v>1</v>
-      </c>
-      <c r="U34" s="9">
-        <v>0</v>
-      </c>
-      <c r="V34" s="9">
-        <v>0</v>
-      </c>
-      <c r="W34" s="9">
-        <v>0</v>
-      </c>
-      <c r="X34" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O35" s="6">
-        <v>0</v>
-      </c>
-      <c r="P35" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>0</v>
-      </c>
-      <c r="R35" s="6">
-        <v>0</v>
-      </c>
-      <c r="S35" s="6">
-        <v>1</v>
-      </c>
-      <c r="T35" s="6">
-        <v>1</v>
-      </c>
-      <c r="U35" s="6">
-        <v>0</v>
-      </c>
-      <c r="V35" s="6">
-        <v>0</v>
-      </c>
-      <c r="W35" s="6">
-        <v>1</v>
-      </c>
-      <c r="X35" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="6">
+      <c r="O31" s="7">
+        <v>0</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+      <c r="S31" s="7">
+        <v>1</v>
+      </c>
+      <c r="T31" s="7">
+        <v>1</v>
+      </c>
+      <c r="U31" s="7">
+        <v>0</v>
+      </c>
+      <c r="V31" s="7">
+        <v>0</v>
+      </c>
+      <c r="W31" s="9">
+        <v>1</v>
+      </c>
+      <c r="X31" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="9">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="7">
         <v>0</v>
       </c>
     </row>
